--- a/Doc/Marvin OKR 20210313.xlsx
+++ b/Doc/Marvin OKR 20210313.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin.Ning\Desktop\LPC55S69\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1310474-F6CF-446E-A7FA-F433CD0E3DB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D15557-C1BB-49E6-97D4-0CD3979B56CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="145">
   <si>
     <t>2. 协调团队资源和推动完成在线系统的设计
 -完成在线系统的硬件和软件设计
@@ -1156,43 +1156,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>购买能够测试uA级别电流的产品,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 继续调试低功耗.
-2.完善程序的各功能的可靠性
-3.通过OneNet平台更新产品采样参数,查看产品基本信息.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续完善server.lua文件,通过该文件更新产品采样参数</t>
+    <t>1.完成从网络同步时间的功能,并将系统时间上传到OneNet平台,方便查看模块的时间是否正确.
+2.编写&lt;无线产品测试指南.docx&gt;初版
+3.研究定时器CTIMER3将模块从低功耗模式唤醒(之前调试好的唤醒模式是从UART3接受中断短信)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成从网络同步时间的功能
-2.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1921,61 +1891,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1993,16 +1951,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2693,13 +2663,13 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="109">
         <v>0.3</v>
       </c>
       <c r="E5" s="56" t="s">
@@ -2718,9 +2688,9 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="83"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="95"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="106"/>
       <c r="E6" s="31" t="s">
         <v>33</v>
       </c>
@@ -2737,9 +2707,9 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="83"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="95"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="56" t="s">
         <v>34</v>
       </c>
@@ -2750,9 +2720,9 @@
       <c r="H7" s="44"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="83"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="97"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="108"/>
       <c r="E8" s="32"/>
       <c r="F8" s="29"/>
       <c r="G8" s="34" t="s">
@@ -2761,11 +2731,11 @@
       <c r="H8" s="53"/>
     </row>
     <row r="9" spans="2:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="83"/>
-      <c r="C9" s="85" t="s">
+      <c r="B9" s="103"/>
+      <c r="C9" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="105">
         <v>0.45</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -2778,9 +2748,9 @@
       <c r="H9" s="44"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="83"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="95"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="56" t="s">
         <v>32</v>
       </c>
@@ -2791,9 +2761,9 @@
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="83"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="95"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="31" t="s">
         <v>37</v>
       </c>
@@ -2804,9 +2774,9 @@
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="83"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="95"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="56" t="s">
         <v>34</v>
       </c>
@@ -2817,9 +2787,9 @@
       <c r="H12" s="44"/>
     </row>
     <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="83"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="97"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="32"/>
       <c r="F13" s="29"/>
       <c r="G13" s="34" t="s">
@@ -2828,11 +2798,11 @@
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="83"/>
-      <c r="C14" s="85" t="s">
+      <c r="B14" s="103"/>
+      <c r="C14" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="105">
         <v>0.25</v>
       </c>
       <c r="E14" s="56" t="s">
@@ -2845,9 +2815,9 @@
       <c r="H14" s="44"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="95"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="31" t="s">
         <v>40</v>
       </c>
@@ -2858,9 +2828,9 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="83"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="95"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
@@ -2871,9 +2841,9 @@
       <c r="H16" s="44"/>
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="84"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="96"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="107"/>
       <c r="E17" s="46"/>
       <c r="F17" s="45"/>
       <c r="G17" s="47" t="s">
@@ -2902,13 +2872,13 @@
       <c r="H19" s="37"/>
     </row>
     <row r="20" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="93">
+      <c r="D20" s="89">
         <v>0.2</v>
       </c>
       <c r="E20" s="56" t="s">
@@ -2921,9 +2891,9 @@
       <c r="H20" s="43"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="83"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="91"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="31" t="s">
         <v>45</v>
       </c>
@@ -2934,9 +2904,9 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="83"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="91"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="94"/>
       <c r="E22" s="31" t="s">
         <v>46</v>
       </c>
@@ -2947,9 +2917,9 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="83"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="91"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="94"/>
       <c r="E23" s="31" t="s">
         <v>47</v>
       </c>
@@ -2960,9 +2930,9 @@
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="83"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="91"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="56" t="s">
         <v>48</v>
       </c>
@@ -2973,9 +2943,9 @@
       <c r="H24" s="44"/>
     </row>
     <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="83"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="92"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="96"/>
       <c r="E25" s="32"/>
       <c r="F25" s="29"/>
       <c r="G25" s="34" t="s">
@@ -2984,11 +2954,11 @@
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="83"/>
-      <c r="C26" s="85" t="s">
+      <c r="B26" s="103"/>
+      <c r="C26" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="92">
         <v>0.35</v>
       </c>
       <c r="E26" s="56" t="s">
@@ -3001,9 +2971,9 @@
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="83"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="91"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="94"/>
       <c r="E27" s="31" t="s">
         <v>51</v>
       </c>
@@ -3014,9 +2984,9 @@
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="83"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="91"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="94"/>
       <c r="E28" s="56" t="s">
         <v>46</v>
       </c>
@@ -3027,9 +2997,9 @@
       <c r="H28" s="44"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="83"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="91"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="56" t="s">
         <v>48</v>
       </c>
@@ -3040,9 +3010,9 @@
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="83"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="92"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="96"/>
       <c r="E30" s="32"/>
       <c r="F30" s="29"/>
       <c r="G30" s="34" t="s">
@@ -3051,11 +3021,11 @@
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="83"/>
-      <c r="C31" s="85" t="s">
+      <c r="B31" s="103"/>
+      <c r="C31" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="90">
+      <c r="D31" s="92">
         <v>0.1</v>
       </c>
       <c r="E31" s="56" t="s">
@@ -3068,9 +3038,9 @@
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="83"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="91"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="94"/>
       <c r="E32" s="31" t="s">
         <v>53</v>
       </c>
@@ -3081,9 +3051,9 @@
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="83"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="91"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="56" t="s">
         <v>48</v>
       </c>
@@ -3094,9 +3064,9 @@
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="83"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="92"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="32"/>
       <c r="F34" s="29"/>
       <c r="G34" s="34" t="s">
@@ -3105,11 +3075,11 @@
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="83"/>
-      <c r="C35" s="85" t="s">
+      <c r="B35" s="103"/>
+      <c r="C35" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="90">
+      <c r="D35" s="92">
         <v>0.35</v>
       </c>
       <c r="E35" s="31" t="s">
@@ -3122,9 +3092,9 @@
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="83"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="91"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="7" t="s">
         <v>57</v>
       </c>
@@ -3135,9 +3105,9 @@
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="83"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="91"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="31" t="s">
         <v>55</v>
       </c>
@@ -3148,9 +3118,9 @@
       <c r="H37" s="44"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="83"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="91"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="31" t="s">
         <v>61</v>
       </c>
@@ -3161,9 +3131,9 @@
       <c r="H38" s="44"/>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="83"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="91"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="31" t="s">
         <v>56</v>
       </c>
@@ -3174,9 +3144,9 @@
       <c r="H39" s="44"/>
     </row>
     <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="83"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="91"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="56" t="s">
         <v>98</v>
       </c>
@@ -3187,9 +3157,9 @@
       <c r="H40" s="44"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="83"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="91"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="94"/>
       <c r="E41" s="56" t="s">
         <v>48</v>
       </c>
@@ -3200,9 +3170,9 @@
       <c r="H41" s="44"/>
     </row>
     <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="84"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="106"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="95"/>
       <c r="E42" s="50"/>
       <c r="F42" s="45"/>
       <c r="G42" s="47" t="s">
@@ -3219,13 +3189,13 @@
       <c r="G44" s="36"/>
     </row>
     <row r="45" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="104" t="s">
+      <c r="C45" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="93">
+      <c r="D45" s="89">
         <v>0.35</v>
       </c>
       <c r="E45" s="52" t="s">
@@ -3239,8 +3209,8 @@
     </row>
     <row r="46" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B46" s="79"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="91"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="94"/>
       <c r="E46" s="54" t="s">
         <v>71</v>
       </c>
@@ -3252,8 +3222,8 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="79"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="91"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="94"/>
       <c r="E47" s="7" t="s">
         <v>68</v>
       </c>
@@ -3265,8 +3235,8 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="79"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="91"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="7" t="s">
         <v>69</v>
       </c>
@@ -3278,8 +3248,8 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="79"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="91"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="94"/>
       <c r="E49" s="7" t="s">
         <v>72</v>
       </c>
@@ -3291,8 +3261,8 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="79"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="91"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="94"/>
       <c r="E50" s="54" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3274,8 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="79"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="91"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="94"/>
       <c r="E51" s="7" t="s">
         <v>66</v>
       </c>
@@ -3317,8 +3287,8 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="79"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="91"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="94"/>
       <c r="E52" s="54" t="s">
         <v>63</v>
       </c>
@@ -3330,8 +3300,8 @@
     </row>
     <row r="53" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B53" s="79"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="91"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="94"/>
       <c r="E53" s="54" t="s">
         <v>67</v>
       </c>
@@ -3343,8 +3313,8 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="79"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="91"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="94"/>
       <c r="E54" s="54" t="s">
         <v>85</v>
       </c>
@@ -3356,8 +3326,8 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="79"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="91"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="94"/>
       <c r="E55" s="7" t="s">
         <v>64</v>
       </c>
@@ -3369,8 +3339,8 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="79"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="91"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="94"/>
       <c r="E56" s="7" t="s">
         <v>84</v>
       </c>
@@ -3382,8 +3352,8 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="79"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="91"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="94"/>
       <c r="E57" s="7" t="s">
         <v>65</v>
       </c>
@@ -3395,8 +3365,8 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="79"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="92"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="96"/>
       <c r="E58" s="32"/>
       <c r="F58" s="29"/>
       <c r="G58" s="34" t="s">
@@ -3406,10 +3376,10 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="79"/>
-      <c r="C59" s="85" t="s">
+      <c r="C59" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="90">
+      <c r="D59" s="92">
         <v>0.2</v>
       </c>
       <c r="E59" s="31" t="s">
@@ -3423,8 +3393,8 @@
     </row>
     <row r="60" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B60" s="79"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="91"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="94"/>
       <c r="E60" s="54" t="s">
         <v>76</v>
       </c>
@@ -3436,8 +3406,8 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="79"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="91"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="94"/>
       <c r="E61" s="31" t="s">
         <v>77</v>
       </c>
@@ -3449,8 +3419,8 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="79"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="91"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="94"/>
       <c r="E62" s="54" t="s">
         <v>78</v>
       </c>
@@ -3462,8 +3432,8 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="79"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="92"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="96"/>
       <c r="E63" s="32"/>
       <c r="F63" s="29"/>
       <c r="G63" s="34" t="s">
@@ -3473,10 +3443,10 @@
     </row>
     <row r="64" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="79"/>
-      <c r="C64" s="101" t="s">
+      <c r="C64" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="90">
+      <c r="D64" s="92">
         <v>0.45</v>
       </c>
       <c r="E64" s="31" t="s">
@@ -3490,8 +3460,8 @@
     </row>
     <row r="65" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="79"/>
-      <c r="C65" s="102"/>
-      <c r="D65" s="91"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="94"/>
       <c r="E65" s="31" t="s">
         <v>89</v>
       </c>
@@ -3503,8 +3473,8 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="79"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="91"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="94"/>
       <c r="E66" s="7" t="s">
         <v>80</v>
       </c>
@@ -3516,8 +3486,8 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="79"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="91"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="94"/>
       <c r="E67" s="7" t="s">
         <v>81</v>
       </c>
@@ -3529,8 +3499,8 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="79"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="91"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="94"/>
       <c r="E68" s="54" t="s">
         <v>88</v>
       </c>
@@ -3542,8 +3512,8 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="79"/>
-      <c r="C69" s="102"/>
-      <c r="D69" s="91"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="94"/>
       <c r="E69" s="31" t="s">
         <v>87</v>
       </c>
@@ -3555,8 +3525,8 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="79"/>
-      <c r="C70" s="102"/>
-      <c r="D70" s="91"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="94"/>
       <c r="E70" s="7" t="s">
         <v>82</v>
       </c>
@@ -3568,8 +3538,8 @@
     </row>
     <row r="71" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B71" s="79"/>
-      <c r="C71" s="102"/>
-      <c r="D71" s="91"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="94"/>
       <c r="E71" s="54" t="s">
         <v>86</v>
       </c>
@@ -3581,8 +3551,8 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="79"/>
-      <c r="C72" s="102"/>
-      <c r="D72" s="91"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="94"/>
       <c r="E72" s="31" t="s">
         <v>79</v>
       </c>
@@ -3594,8 +3564,8 @@
     </row>
     <row r="73" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B73" s="79"/>
-      <c r="C73" s="102"/>
-      <c r="D73" s="91"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="94"/>
       <c r="E73" s="54" t="s">
         <v>83</v>
       </c>
@@ -3607,8 +3577,8 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="79"/>
-      <c r="C74" s="102"/>
-      <c r="D74" s="91"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="94"/>
       <c r="E74" s="54" t="s">
         <v>85</v>
       </c>
@@ -3620,8 +3590,8 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="79"/>
-      <c r="C75" s="102"/>
-      <c r="D75" s="91"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="94"/>
       <c r="E75" s="7" t="s">
         <v>64</v>
       </c>
@@ -3633,8 +3603,8 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="79"/>
-      <c r="C76" s="102"/>
-      <c r="D76" s="91"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="94"/>
       <c r="E76" s="54" t="s">
         <v>84</v>
       </c>
@@ -3646,8 +3616,8 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="79"/>
-      <c r="C77" s="102"/>
-      <c r="D77" s="91"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="94"/>
       <c r="E77" s="7" t="s">
         <v>65</v>
       </c>
@@ -3659,8 +3629,8 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" s="79"/>
-      <c r="C78" s="102"/>
-      <c r="D78" s="91"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="94"/>
       <c r="E78" s="31" t="s">
         <v>92</v>
       </c>
@@ -3672,8 +3642,8 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="79"/>
-      <c r="C79" s="102"/>
-      <c r="D79" s="91"/>
+      <c r="C79" s="98"/>
+      <c r="D79" s="94"/>
       <c r="E79" s="31" t="s">
         <v>93</v>
       </c>
@@ -3684,9 +3654,9 @@
       <c r="H79" s="44"/>
     </row>
     <row r="80" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="100"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="106"/>
+      <c r="B80" s="83"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="95"/>
       <c r="E80" s="50"/>
       <c r="F80" s="45"/>
       <c r="G80" s="47" t="s">
@@ -3704,13 +3674,13 @@
       <c r="G82" s="36"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="99" t="s">
+      <c r="B83" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="88" t="s">
+      <c r="C83" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="D83" s="93">
+      <c r="D83" s="89">
         <v>0.5</v>
       </c>
       <c r="E83" s="42" t="s">
@@ -3724,8 +3694,8 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="79"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="107"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="90"/>
       <c r="E84" s="31" t="s">
         <v>103</v>
       </c>
@@ -3737,8 +3707,8 @@
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="79"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="107"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="90"/>
       <c r="E85" s="31" t="s">
         <v>101</v>
       </c>
@@ -3750,8 +3720,8 @@
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="79"/>
-      <c r="C86" s="86"/>
-      <c r="D86" s="107"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="90"/>
       <c r="E86" s="31" t="s">
         <v>102</v>
       </c>
@@ -3763,8 +3733,8 @@
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="79"/>
-      <c r="C87" s="87"/>
-      <c r="D87" s="108"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="91"/>
       <c r="E87" s="32"/>
       <c r="F87" s="29"/>
       <c r="G87" s="34" t="s">
@@ -3774,10 +3744,10 @@
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="79"/>
-      <c r="C88" s="85" t="s">
+      <c r="C88" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D88" s="90">
+      <c r="D88" s="92">
         <v>0.5</v>
       </c>
       <c r="E88" s="31" t="s">
@@ -3791,8 +3761,8 @@
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="79"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="107"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="90"/>
       <c r="E89" s="31" t="s">
         <v>104</v>
       </c>
@@ -3804,8 +3774,8 @@
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" s="79"/>
-      <c r="C90" s="86"/>
-      <c r="D90" s="107"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="90"/>
       <c r="E90" s="31" t="s">
         <v>107</v>
       </c>
@@ -3817,8 +3787,8 @@
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" s="79"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="107"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="90"/>
       <c r="E91" s="31" t="s">
         <v>108</v>
       </c>
@@ -3829,9 +3799,9 @@
       <c r="H91" s="44"/>
     </row>
     <row r="92" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="100"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="109"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="93"/>
       <c r="E92" s="50"/>
       <c r="F92" s="45"/>
       <c r="G92" s="47" t="s">
@@ -3846,21 +3816,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="D64:D80"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="D45:D58"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="B45:B80"/>
-    <mergeCell ref="C64:C80"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="C45:C58"/>
-    <mergeCell ref="C35:C42"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="B20:B42"/>
     <mergeCell ref="B5:B17"/>
@@ -3875,6 +3830,21 @@
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="D5:D8"/>
+    <mergeCell ref="B45:B80"/>
+    <mergeCell ref="C64:C80"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C45:C58"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="D64:D80"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="D45:D58"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D88:D92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3888,7 +3858,7 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3990,11 +3960,9 @@
         <v>133</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="7" t="s">
         <v>143</v>
       </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" ht="57" x14ac:dyDescent="0.2">
@@ -4017,10 +3985,10 @@
       <c r="G6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
-        <v>142</v>
-      </c>
+      <c r="H6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="44"/>
     </row>
     <row r="7" spans="1:10" ht="57" x14ac:dyDescent="0.2">
@@ -4044,9 +4012,7 @@
         <v>141</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
-        <v>144</v>
-      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="44"/>
     </row>
     <row r="8" spans="1:10" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4069,7 +4035,7 @@
         <v>138</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>140</v>
